--- a/Question_Sets/Role-specific skills/Environmental, Social, and Governance Investing.xlsx
+++ b/Question_Sets/Role-specific skills/Environmental, Social, and Governance Investing.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are an asset manager at a mid-sized fund that has traditionally invested in diverse industries, including oil and gas. In a recent internal meeting, senior management asked all asset managers to improve the overall ESG performance of their funds. The asset owners want a better ESG performance but have little tolerance for reduced returns on investment.How would you implement the directive to improve the ESG performance of your portfolio while balancing the need to maintain financial returns?', 'ques_type': 2, 'options': ['Immediately move out of all fossil fuel investments. ', 'Move out of a small amount of fossil fuel investments, and use the released amount to invest in carbon capture technologies.', 'Stay in certain oil and gas companies if they have a net-zero transition plan aligned with 2050 goals.', 'Stay in certain oil and gas companies if their green transition is running, and use the released amount to invest in innovative solar batteries.'], 'score': 'Move out of a small amount of fossil fuel investments, and use the released amount to invest in carbon capture technologies.'}, {'title': 'You are an investment consultant for a global institutional investor. Major shareholders are unhappy with their investments in “sin industries” due to a misalignment of values. By the end of the current financial year, the shareholders want to maintain a well-distributed risk level with a positive return on investment. If possible, they prefer investing in companies with a balanced board gender ratio and a strong commitment to reducing greenhouse gas emissions. How should you proceed with these ESG investment objectives in mind?', 'ques_type': 2, 'options': ['Divest from the “sin stocks” and continue investing in companies with balanced board gender ratios.', 'Divest from the “sin stocks” and invest in several more companies that have a balanced board gender ratio and a 2030 net-zero target. ', 'Keep the existing “sin stocks” and increase engagement and voting activities in those companies.', 'Divest from the “sin stocks” and invest in companies that benefit commercially from the trend of sustainable products/services.'], 'score': 'Divest from the “sin stocks” and continue investing in companies with balanced board gender ratios.'}, {'title': 'You are a portfolio manager at a wealth management company with some food and beverage and luxury textile companies in your portfolio. You learn that veganism is quickly gaining popularity in Europe and North America, with some experts predicting 25% growth in the next five years. Veganism involves avoiding animal products or animal testing in food, clothes, and consumer goods.What metrics should you research to assess the potential economic impact of this trend on your portfolio companies?', 'ques_type': 2, 'options': ['Sales figures of leather and dairy manufacturers', 'Greenhouse gas emissions of meat producers', 'Stock prices of food and beverage and luxury textile companies', 'Sustainability reports of dairy manufacturers'], 'score': 'Sales figures of leather and dairy manufacturers'}, {'title': 'You are an analyst at a private equity firm. For the next investment round, your manager has shortlisted some companies from the same sector and industry. Your task is to compare and evaluate these companies based on their ESG materiality perception and reporting practices.Which of the following sources should you review to best assess their ESG performance?', 'ques_type': 2, 'options': ['The Sustainability Accounting Standards Board (SASB) aligned version of their sustainability reports.', 'The Global Reporting Initiative (GRI) aligned version of their sustainability reports.', 'Net-zero plans and targets for the year 2030.', 'Their report on diversity indicators and targets.'], 'score': 'The Global Reporting Initiative (GRI) aligned version of their sustainability reports.'}]</t>
+    <t>questions = [
+    {
+        "title": "You are an asset manager at a mid-sized fund that has traditionally invested in diverse industries, including oil and gas. In a recent internal meeting, senior management asked all asset managers to improve the overall ESG performance of their funds. The asset owners want a better ESG performance but have little tolerance for reduced returns on investment.How would you implement the directive to improve the ESG performance of your portfolio while balancing the need to maintain financial returns?",
+        "ques_type": 2,
+        "options": [
+            "Immediately move out of all fossil fuel investments. ",
+            "Move out of a small amount of fossil fuel investments, and use the released amount to invest in carbon capture technologies.",
+            "Stay in certain oil and gas companies if they have a net-zero transition plan aligned with 2050 goals.",
+            "Stay in certain oil and gas companies if their green transition is running, and use the released amount to invest in innovative solar batteries."
+        ],
+        "score": "Move out of a small amount of fossil fuel investments, and use the released amount to invest in carbon capture technologies."
+    },
+    {
+        "title": "You are an investment consultant for a global institutional investor. Major shareholders are unhappy with their investments in \u201csin industries\u201d due to a misalignment of values. By the end of the current financial year, the shareholders want to maintain a well-distributed risk level with a positive return on investment. If possible, they prefer investing in companies with a balanced board gender ratio and a strong commitment to reducing greenhouse gas emissions. How should you proceed with these ESG investment objectives in mind?",
+        "ques_type": 2,
+        "options": [
+            "Divest from the \u201csin stocks\u201d and continue investing in companies with balanced board gender ratios.",
+            "Divest from the \u201csin stocks\u201d and invest in several more companies that have a balanced board gender ratio and a 2030 net-zero target. ",
+            "Keep the existing \u201csin stocks\u201d and increase engagement and voting activities in those companies.",
+            "Divest from the \u201csin stocks\u201d and invest in companies that benefit commercially from the trend of sustainable products/services."
+        ],
+        "score": "Divest from the \u201csin stocks\u201d and continue investing in companies with balanced board gender ratios."
+    },
+    {
+        "title": "You are a portfolio manager at a wealth management company with some food and beverage and luxury textile companies in your portfolio. You learn that veganism is quickly gaining popularity in Europe and North America, with some experts predicting 25% growth in the next five years. Veganism involves avoiding animal products or animal testing in food, clothes, and consumer goods.What metrics should you research to assess the potential economic impact of this trend on your portfolio companies?",
+        "ques_type": 2,
+        "options": [
+            "Sales figures of leather and dairy manufacturers",
+            "Greenhouse gas emissions of meat producers",
+            "Stock prices of food and beverage and luxury textile companies",
+            "Sustainability reports of dairy manufacturers"
+        ],
+        "score": "Sales figures of leather and dairy manufacturers"
+    },
+    {
+        "title": "You are an analyst at a private equity firm. For the next investment round, your manager has shortlisted some companies from the same sector and industry. Your task is to compare and evaluate these companies based on their ESG materiality perception and reporting practices.Which of the following sources should you review to best assess their ESG performance?",
+        "ques_type": 2,
+        "options": [
+            "The Sustainability Accounting Standards Board (SASB) aligned version of their sustainability reports.",
+            "The Global Reporting Initiative (GRI) aligned version of their sustainability reports.",
+            "Net-zero plans and targets for the year 2030.",
+            "Their report on diversity indicators and targets."
+        ],
+        "score": "The Global Reporting Initiative (GRI) aligned version of their sustainability reports."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
